--- a/CORTOM_schedule.xlsx
+++ b/CORTOM_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hum2/work/python/python_huw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7703BFE-4D6E-DA42-A8E1-8451AC97D3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CBF8EA-92D2-D944-B629-F3C53C656064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="460" windowWidth="33140" windowHeight="27220" xr2:uid="{6DAD3E1D-14CE-F04A-B93A-5AFEC696BF21}"/>
   </bookViews>
@@ -308,10 +308,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,7 +631,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
       <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -800,7 +800,7 @@
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -820,7 +820,7 @@
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="7" t="s">
         <v>29</v>
       </c>
